--- a/npo_lab04/levels_of_tests_nataliya_yarchynskaya.xlsx
+++ b/npo_lab04/levels_of_tests_nataliya_yarchynskaya.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ABD58C-4620-4144-829A-553722904F12}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D9FD6-B753-4EB4-B8C8-ABBC9B311D7E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,26 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>Checked</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Загрузить фото</t>
   </si>
   <si>
-    <t>Загрузить фото  с расширением pdf</t>
-  </si>
-  <si>
-    <t>Загрузить фото  с расширением png</t>
-  </si>
-  <si>
     <t>Загрузить фото  с расширением jpg</t>
   </si>
   <si>
@@ -101,18 +86,6 @@
     <t>Поставить на аватарку фото, ранее загруженное в альбом</t>
   </si>
   <si>
-    <t>Загрузить файл недопустимого формата</t>
-  </si>
-  <si>
-    <t>Загрузить изображение всех допустимых форматов (jpg, png, gif)</t>
-  </si>
-  <si>
-    <t>Загрузить маленький файл</t>
-  </si>
-  <si>
-    <t>Загрузить большой файл</t>
-  </si>
-  <si>
     <t>Отметить человека на фото</t>
   </si>
   <si>
@@ -177,6 +150,12 @@
   </si>
   <si>
     <t>Выполнено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Загрузить фото  с расширением png </t>
+  </si>
+  <si>
+    <t>Загрузить фото  с расширением gif</t>
   </si>
 </sst>
 </file>
@@ -541,23 +520,25 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="76.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -565,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -574,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -583,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -592,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -601,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -610,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -619,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -629,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -638,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -647,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -656,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -665,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -674,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -683,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -692,7 +673,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -701,7 +682,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -710,7 +691,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -721,10 +702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,13 +717,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -750,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -759,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -768,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -776,8 +757,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -786,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -794,8 +775,8 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -804,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -813,16 +794,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -831,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -840,43 +821,43 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -885,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -893,8 +874,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -903,7 +884,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -912,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1"/>
     </row>
@@ -921,7 +902,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1"/>
     </row>
@@ -930,7 +911,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1"/>
     </row>
@@ -939,7 +920,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -948,7 +929,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -957,7 +938,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -966,45 +947,29 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="1"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="1"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="1"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="1"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
@@ -1041,26 +1006,6 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
